--- a/biology/Botanique/Eucalyptus_tricarpa/Eucalyptus_tricarpa.xlsx
+++ b/biology/Botanique/Eucalyptus_tricarpa/Eucalyptus_tricarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus tricarpa est une espèce d'eucalyptus des sols pauvres des forêts sclérophylles, endémique au Victoria et à la côte sud de la Nouvelle-Galles du Sud en Australie. C'est un grand arbre au tronc droit qui atteint habituellement entre 25 et 35 mètres de hauteur. Il a une écorce brun-noir à rouge-brun profondément sillonnée et persistante sur toutes les branches. Les feuilles sont alternes, lancéolées, ternes concolores et mesurent de 9 à 19 cm de longueur. Les fleurs sont blanches, crème, rose ou rouge.
 Il a été considéré comme une sous-espèce d’Eucalyptus sideroxylon.
